--- a/SSYM_System/document/SSYM_System.xlsx
+++ b/SSYM_System/document/SSYM_System.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinuetsuyoshi/00_DRIVE_LINE/00_Git_JAVA/その他/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinuetsuyoshi/00_DRIVE_LINE/00_Git_JAVA/work/SSYM_System/SSY_System/SSYM_System/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358D8ADC-E6A5-A243-9F42-02B87A4285CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E528580-B840-4C40-B01D-734105AC72A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-3600" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{381BC9B0-B24D-5F44-8207-B63626D44889}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{381BC9B0-B24D-5F44-8207-B63626D44889}"/>
   </bookViews>
   <sheets>
     <sheet name="営業支援システム" sheetId="1" r:id="rId1"/>
@@ -158,10 +158,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -687,7 +687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546AD136-1EEF-D044-9B95-0DA04EA18BDE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
       <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>

--- a/SSYM_System/document/SSYM_System.xlsx
+++ b/SSYM_System/document/SSYM_System.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinuetsuyoshi/00_DRIVE_LINE/00_Git_JAVA/work/SSYM_System/SSY_System/SSYM_System/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E528580-B840-4C40-B01D-734105AC72A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EDA1B1-98B8-2041-ACEF-E3D528699DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{381BC9B0-B24D-5F44-8207-B63626D44889}"/>
   </bookViews>
@@ -687,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546AD136-1EEF-D044-9B95-0DA04EA18BDE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="R82" sqref="R82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
